--- a/features_name.xlsx
+++ b/features_name.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuzhenxing/Documents/AKI-related/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B2AD83B-5653-0340-BB43-08C6A124BFC9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>chartevents</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -276,7 +282,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -289,23 +295,29 @@
     <t xml:space="preserve">      51237, --INR(PT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>egfr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -314,7 +326,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -322,7 +334,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,9 +383,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -391,34 +406,34 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:D25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A2:D27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:D27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="# of features"/>
-    <tableColumn id="2" name="Category"/>
-    <tableColumn id="3" name="Features"/>
-    <tableColumn id="4" name="Features in MIMIC-III (itemid, --label)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="# of features"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Features"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Features in MIMIC-III (itemid, --label)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,9 +508,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,6 +560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,27 +752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -737,7 +786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -748,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -759,7 +808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -770,7 +819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -784,7 +833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -792,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -800,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -808,7 +857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -816,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -824,7 +873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -832,7 +881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -840,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -854,7 +903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -862,7 +911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -870,7 +919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>40</v>
       </c>
@@ -878,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -886,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -894,7 +943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -902,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -910,7 +959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -918,7 +967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -926,7 +975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>22</v>
       </c>
@@ -934,13 +983,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -952,12 +1019,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -965,12 +1032,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/features_name.xlsx
+++ b/features_name.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuzhenxing/Documents/AKI-related/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\新建文件夹\untitled folder\untitled folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B2AD83B-5653-0340-BB43-08C6A124BFC9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6612"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,37 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>chartevents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HeartRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SysBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiasBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeanBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RespRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glucose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,39 +62,6 @@
   <si>
     <t>labevents</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BICARBONATE</t>
-  </si>
-  <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>CHLORIDE</t>
-  </si>
-  <si>
-    <t>HEMOGLOBIN</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>PLATELET</t>
-  </si>
-  <si>
-    <t>POTASSIUM</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>CALCIUM</t>
   </si>
   <si>
     <t xml:space="preserve">      807,-- Fingerstick Glucose
@@ -200,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATININE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      50912, -- CREATININE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,11 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      646, -- SPO2
-220277. --peripheral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      223762, -- Temperature Celsius
       676, -- Temperature C
       223761, -- Temperature Fahrenheit
@@ -247,20 +180,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Features in MIMIC-III (itemid, --label)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congestive heart failure;
-peripheral vascular;
-hypertension;
-diabetes;
-liver disease;
-MI(myocardial infarction);
-CAD(coronary artery disease);
-cirrhosis;
-jaundic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">      51237, --INR(PT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urine</t>
   </si>
   <si>
     <r>
@@ -270,19 +194,19 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Group of Features used in MIMIC-III</t>
+      <t>Groups of Features used in MIMIC-III</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -292,32 +216,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      51237, --INR(PT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>egfr</t>
+    <t>Description in MIMIC-III (itemid, --label)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eGFR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood urea nitrogen (BUN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>international normalized ratio (INR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systolic blood pressure (SysBP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean arterial blood pressure (MeanBP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diastolic blood pressure (DiasBP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respiration rate(RespRate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prothrombin time (PT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partial thromboplastin time (PTT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white blood count (WBC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congestive heart failure;
+peripheral vascular;
+hypertension;
+diabetes;
+liver disease;
+myocardial infarction (MI);
+coronary artery disease (CAD);
+cirrhosis;
+jaundic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glucose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicarbonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chloride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creatinine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hemoglobin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platelet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potassium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      646, -- SPO2
+      220277. --peripheral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -326,7 +341,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,7 +349,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -383,7 +398,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -420,20 +435,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A2:D27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:D27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:D27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:D27"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="# of features"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Features"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Features in MIMIC-III (itemid, --label)" dataDxfId="0"/>
+    <tableColumn id="1" name="# of features"/>
+    <tableColumn id="2" name="Category"/>
+    <tableColumn id="3" name="Features"/>
+    <tableColumn id="4" name="Description in MIMIC-III (itemid, --label)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,23 +523,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -560,23 +558,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,74 +733,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="59.5" customWidth="1"/>
+    <col min="1" max="1" width="17.3125" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="3" max="3" width="47.7890625" customWidth="1"/>
+    <col min="4" max="4" width="59.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="56.4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>8</v>
       </c>
@@ -827,204 +808,205 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="84.6" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="84.6" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="98.7" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="112.8" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1032,12 +1014,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
